--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="freshman_data" sheetId="1" r:id="rId1"/>
     <sheet name="sophmore_data" sheetId="2" r:id="rId2"/>
+    <sheet name="junior_data" sheetId="3" r:id="rId3"/>
+    <sheet name="senior_data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="86">
   <si>
     <t>Major</t>
   </si>
@@ -216,6 +218,63 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
 </sst>
 </file>
@@ -6653,4 +6712,6088 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" t="s">
+        <v>53</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" t="s">
+        <v>33</v>
+      </c>
+      <c r="F126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="s">
+        <v>41</v>
+      </c>
+      <c r="E127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" t="s">
+        <v>71</v>
+      </c>
+      <c r="E129" t="s">
+        <v>33</v>
+      </c>
+      <c r="F129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="B130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" t="s">
+        <v>33</v>
+      </c>
+      <c r="F131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="B132" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" t="s">
+        <v>50</v>
+      </c>
+      <c r="E140" t="s">
+        <v>33</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="B147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" t="s">
+        <v>33</v>
+      </c>
+      <c r="F147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>42</v>
+      </c>
+      <c r="D149" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" t="s">
+        <v>33</v>
+      </c>
+      <c r="F149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F151" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="B152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" t="s">
+        <v>33</v>
+      </c>
+      <c r="F152" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" t="s">
+        <v>33</v>
+      </c>
+      <c r="E153" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" t="s">
+        <v>33</v>
+      </c>
+      <c r="F154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" t="s">
+        <v>33</v>
+      </c>
+      <c r="F157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" t="s">
+        <v>33</v>
+      </c>
+      <c r="F158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>41</v>
+      </c>
+      <c r="D159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" t="s">
+        <v>33</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" t="s">
+        <v>72</v>
+      </c>
+      <c r="D162" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" t="s">
+        <v>35</v>
+      </c>
+      <c r="F162" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="B163" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" t="s">
+        <v>46</v>
+      </c>
+      <c r="D164" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" t="s">
+        <v>35</v>
+      </c>
+      <c r="F164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="B165" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" t="s">
+        <v>33</v>
+      </c>
+      <c r="E165" t="s">
+        <v>33</v>
+      </c>
+      <c r="F165" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="B168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>33</v>
+      </c>
+      <c r="F168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" t="s">
+        <v>40</v>
+      </c>
+      <c r="E169" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="B171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" t="s">
+        <v>33</v>
+      </c>
+      <c r="F171" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="B172" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F172" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>49</v>
+      </c>
+      <c r="E173" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" t="s">
+        <v>35</v>
+      </c>
+      <c r="D174" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="B175" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" t="s">
+        <v>33</v>
+      </c>
+      <c r="F175" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" t="s">
+        <v>33</v>
+      </c>
+      <c r="E176" t="s">
+        <v>33</v>
+      </c>
+      <c r="F176" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" t="s">
+        <v>33</v>
+      </c>
+      <c r="F179" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s">
+        <v>33</v>
+      </c>
+      <c r="E180" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" t="s">
+        <v>33</v>
+      </c>
+      <c r="F182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>35</v>
+      </c>
+      <c r="D184" t="s">
+        <v>33</v>
+      </c>
+      <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" t="s">
+        <v>33</v>
+      </c>
+      <c r="F185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" t="s">
+        <v>33</v>
+      </c>
+      <c r="F186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>41</v>
+      </c>
+      <c r="D93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" t="s">
+        <v>40</v>
+      </c>
+      <c r="F96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" t="s">
+        <v>33</v>
+      </c>
+      <c r="F126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="B130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" t="s">
+        <v>46</v>
+      </c>
+      <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="B132" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>33</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="B147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" t="s">
+        <v>33</v>
+      </c>
+      <c r="F147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>44</v>
+      </c>
+      <c r="D149" t="s">
+        <v>40</v>
+      </c>
+      <c r="E149" t="s">
+        <v>33</v>
+      </c>
+      <c r="F149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" t="s">
+        <v>73</v>
+      </c>
+      <c r="D151" t="s">
+        <v>83</v>
+      </c>
+      <c r="E151" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="B152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" t="s">
+        <v>33</v>
+      </c>
+      <c r="F152" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" t="s">
+        <v>35</v>
+      </c>
+      <c r="E153" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" t="s">
+        <v>33</v>
+      </c>
+      <c r="F154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" t="s">
+        <v>33</v>
+      </c>
+      <c r="F157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s">
+        <v>40</v>
+      </c>
+      <c r="E158" t="s">
+        <v>33</v>
+      </c>
+      <c r="F158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>40</v>
+      </c>
+      <c r="D159" t="s">
+        <v>40</v>
+      </c>
+      <c r="E159" t="s">
+        <v>33</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" t="s">
+        <v>53</v>
+      </c>
+      <c r="D160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" t="s">
+        <v>80</v>
+      </c>
+      <c r="D162" t="s">
+        <v>49</v>
+      </c>
+      <c r="E162" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="B163" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" t="s">
+        <v>35</v>
+      </c>
+      <c r="F163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" t="s">
+        <v>46</v>
+      </c>
+      <c r="D164" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" t="s">
+        <v>33</v>
+      </c>
+      <c r="F164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="B165" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F165" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="B168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>33</v>
+      </c>
+      <c r="F168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" t="s">
+        <v>33</v>
+      </c>
+      <c r="E169" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="B171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" t="s">
+        <v>44</v>
+      </c>
+      <c r="D171" t="s">
+        <v>33</v>
+      </c>
+      <c r="E171" t="s">
+        <v>33</v>
+      </c>
+      <c r="F171" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="B172" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F172" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>55</v>
+      </c>
+      <c r="D173" t="s">
+        <v>49</v>
+      </c>
+      <c r="E173" t="s">
+        <v>41</v>
+      </c>
+      <c r="F173" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="B175" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" t="s">
+        <v>33</v>
+      </c>
+      <c r="E175" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" t="s">
+        <v>35</v>
+      </c>
+      <c r="E176" t="s">
+        <v>33</v>
+      </c>
+      <c r="F176" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" t="s">
+        <v>33</v>
+      </c>
+      <c r="F179" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s">
+        <v>33</v>
+      </c>
+      <c r="E180" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" t="s">
+        <v>33</v>
+      </c>
+      <c r="F182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" t="s">
+        <v>33</v>
+      </c>
+      <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" t="s">
+        <v>33</v>
+      </c>
+      <c r="F185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" t="s">
+        <v>33</v>
+      </c>
+      <c r="F186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code/output.xlsx
+++ b/code/output.xlsx
@@ -11,13 +11,14 @@
     <sheet name="sophmore_data" sheetId="2" r:id="rId2"/>
     <sheet name="junior_data" sheetId="3" r:id="rId3"/>
     <sheet name="senior_data" sheetId="4" r:id="rId4"/>
+    <sheet name="grad_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="99">
   <si>
     <t>Major</t>
   </si>
@@ -275,6 +276,45 @@
   </si>
   <si>
     <t>38</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -12796,4 +12836,3046 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="B109" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="B121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" t="s">
+        <v>33</v>
+      </c>
+      <c r="F126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" t="s">
+        <v>97</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="B130" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" t="s">
+        <v>41</v>
+      </c>
+      <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" t="s">
+        <v>46</v>
+      </c>
+      <c r="E131" t="s">
+        <v>33</v>
+      </c>
+      <c r="F131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="B132" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" t="s">
+        <v>33</v>
+      </c>
+      <c r="E136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" t="s">
+        <v>33</v>
+      </c>
+      <c r="E138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>35</v>
+      </c>
+      <c r="D140" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142" t="s">
+        <v>46</v>
+      </c>
+      <c r="E142" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>33</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="B147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" t="s">
+        <v>33</v>
+      </c>
+      <c r="E147" t="s">
+        <v>33</v>
+      </c>
+      <c r="F147" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" t="s">
+        <v>33</v>
+      </c>
+      <c r="F149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" t="s">
+        <v>33</v>
+      </c>
+      <c r="D150" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" t="s">
+        <v>79</v>
+      </c>
+      <c r="D151" t="s">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>35</v>
+      </c>
+      <c r="F151" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="B152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" t="s">
+        <v>33</v>
+      </c>
+      <c r="F152" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>92</v>
+      </c>
+      <c r="D153" t="s">
+        <v>43</v>
+      </c>
+      <c r="E153" t="s">
+        <v>35</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>41</v>
+      </c>
+      <c r="D154" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" t="s">
+        <v>33</v>
+      </c>
+      <c r="F154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="B157" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" t="s">
+        <v>33</v>
+      </c>
+      <c r="F157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" t="s">
+        <v>33</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>33</v>
+      </c>
+      <c r="F158" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>33</v>
+      </c>
+      <c r="D159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" t="s">
+        <v>33</v>
+      </c>
+      <c r="F159" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="B162" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" t="s">
+        <v>33</v>
+      </c>
+      <c r="D162" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" t="s">
+        <v>33</v>
+      </c>
+      <c r="F162" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="B163" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" t="s">
+        <v>33</v>
+      </c>
+      <c r="D164" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" t="s">
+        <v>33</v>
+      </c>
+      <c r="F164" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="B165" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" t="s">
+        <v>33</v>
+      </c>
+      <c r="E165" t="s">
+        <v>33</v>
+      </c>
+      <c r="F165" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4</v>
+      </c>
+      <c r="F166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="B168" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" t="s">
+        <v>33</v>
+      </c>
+      <c r="D168" t="s">
+        <v>33</v>
+      </c>
+      <c r="E168" t="s">
+        <v>33</v>
+      </c>
+      <c r="F168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" t="s">
+        <v>53</v>
+      </c>
+      <c r="D169" t="s">
+        <v>49</v>
+      </c>
+      <c r="E169" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" t="s">
+        <v>35</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="B171" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" t="s">
+        <v>53</v>
+      </c>
+      <c r="D171" t="s">
+        <v>46</v>
+      </c>
+      <c r="E171" t="s">
+        <v>49</v>
+      </c>
+      <c r="F171" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="B172" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" t="s">
+        <v>33</v>
+      </c>
+      <c r="F172" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>93</v>
+      </c>
+      <c r="D173" t="s">
+        <v>83</v>
+      </c>
+      <c r="E173" t="s">
+        <v>79</v>
+      </c>
+      <c r="F173" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" t="s">
+        <v>42</v>
+      </c>
+      <c r="D174" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="B175" t="s">
+        <v>30</v>
+      </c>
+      <c r="C175" t="s">
+        <v>94</v>
+      </c>
+      <c r="D175" t="s">
+        <v>87</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" t="s">
+        <v>33</v>
+      </c>
+      <c r="E176" t="s">
+        <v>40</v>
+      </c>
+      <c r="F176" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>4</v>
+      </c>
+      <c r="F177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="B179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" t="s">
+        <v>33</v>
+      </c>
+      <c r="E179" t="s">
+        <v>33</v>
+      </c>
+      <c r="F179" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="B180" t="s">
+        <v>24</v>
+      </c>
+      <c r="C180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s">
+        <v>33</v>
+      </c>
+      <c r="E180" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>33</v>
+      </c>
+      <c r="D181" t="s">
+        <v>33</v>
+      </c>
+      <c r="E181" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" t="s">
+        <v>33</v>
+      </c>
+      <c r="F182" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" t="s">
+        <v>33</v>
+      </c>
+      <c r="E183" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" t="s">
+        <v>33</v>
+      </c>
+      <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" t="s">
+        <v>33</v>
+      </c>
+      <c r="E185" t="s">
+        <v>33</v>
+      </c>
+      <c r="F185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" t="s">
+        <v>33</v>
+      </c>
+      <c r="D186" t="s">
+        <v>33</v>
+      </c>
+      <c r="E186" t="s">
+        <v>33</v>
+      </c>
+      <c r="F186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>33</v>
+      </c>
+      <c r="D187" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>